--- a/PV_ICE/baselines/ElectrificationFutures_2021/NREL_Electrification_Futures_2021_ANALYSIS.xlsx
+++ b/PV_ICE/baselines/ElectrificationFutures_2021/NREL_Electrification_Futures_2021_ANALYSIS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\LiteratureProjections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\ElectrificationFutures_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E18705B-1165-4AC9-A959-A66657C255BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B213029-5615-4AF3-95AE-43C201E6B477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AF72BD23-974C-4E35-956F-C0D9DFB4E55E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{AF72BD23-974C-4E35-956F-C0D9DFB4E55E}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Reeds" sheetId="3" r:id="rId1"/>
@@ -495,6 +495,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -516,16 +526,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -6501,7 +6501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7755643-5611-467E-B7A2-2A0E07DAA24D}">
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA25" zoomScale="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA34" zoomScale="96" workbookViewId="0">
       <selection activeCell="AQ64" sqref="AQ64"/>
     </sheetView>
   </sheetViews>
@@ -6549,24 +6549,24 @@
       <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="I2" s="37" t="s">
+      <c r="G2" s="36"/>
+      <c r="I2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="M2" s="38" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="M2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="S2" s="33" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="S2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="37"/>
     </row>
     <row r="3" spans="1:35" s="28" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="s">
@@ -6618,28 +6618,28 @@
       <c r="W3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="41" t="s">
+      <c r="AB3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AC3" s="39" t="s">
+      <c r="AC3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="39" t="s">
+      <c r="AD3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="39" t="s">
+      <c r="AE3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="40" t="s">
+      <c r="AF3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="40" t="s">
+      <c r="AG3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AH3" s="40" t="s">
+      <c r="AH3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AI3" s="40" t="s">
+      <c r="AI3" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6715,7 +6715,7 @@
       <c r="AE4" s="18">
         <v>12.5</v>
       </c>
-      <c r="AF4" s="42">
+      <c r="AF4" s="35">
         <f>AC4/1000</f>
         <v>1.2500000000000001E-2</v>
       </c>
@@ -6723,7 +6723,7 @@
         <f>AC4</f>
         <v>12.5</v>
       </c>
-      <c r="AH4" s="42">
+      <c r="AH4" s="35">
         <f>AD4/1000</f>
         <v>1.2500000000000001E-2</v>
       </c>
@@ -6815,7 +6815,7 @@
       <c r="AE5" s="18">
         <v>9.6676666670000007</v>
       </c>
-      <c r="AF5" s="42">
+      <c r="AF5" s="35">
         <f t="shared" ref="AF5:AF59" si="1">AC5/1000</f>
         <v>9.6676666670000005E-3</v>
       </c>
@@ -6823,7 +6823,7 @@
         <f>AF5+AG4</f>
         <v>12.509667666666999</v>
       </c>
-      <c r="AH5" s="42">
+      <c r="AH5" s="35">
         <f>AD5/1000</f>
         <v>9.6676666670000005E-3</v>
       </c>
@@ -6888,7 +6888,7 @@
         <f>O6*0.85*1000</f>
         <v>32144.301193814863</v>
       </c>
-      <c r="U6" s="34" t="s">
+      <c r="U6" s="38" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="11" t="s">
@@ -6916,20 +6916,20 @@
       <c r="AE6" s="18">
         <v>11.622</v>
       </c>
-      <c r="AF6" s="42">
+      <c r="AF6" s="35">
         <f t="shared" si="1"/>
         <v>1.1622E-2</v>
       </c>
       <c r="AG6" s="7">
-        <f t="shared" ref="AG6:AG60" si="7">AF6+AG5</f>
+        <f t="shared" ref="AG6:AG59" si="7">AF6+AG5</f>
         <v>12.521289666666998</v>
       </c>
-      <c r="AH6" s="42">
+      <c r="AH6" s="35">
         <f t="shared" ref="AH6:AH59" si="8">AD6/1000</f>
         <v>1.1622E-2</v>
       </c>
       <c r="AI6" s="7">
-        <f t="shared" ref="AI6:AI60" si="9">AH6+AI5</f>
+        <f t="shared" ref="AI6:AI59" si="9">AH6+AI5</f>
         <v>12.521289666666998</v>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
         <f t="shared" si="0"/>
         <v>45317.036905093388</v>
       </c>
-      <c r="U7" s="35"/>
+      <c r="U7" s="39"/>
       <c r="W7" s="11"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="13"/>
@@ -7008,7 +7008,7 @@
       <c r="AE7" s="18">
         <v>11.781000000000001</v>
       </c>
-      <c r="AF7" s="42">
+      <c r="AF7" s="35">
         <f t="shared" si="1"/>
         <v>1.1781E-2</v>
       </c>
@@ -7016,7 +7016,7 @@
         <f t="shared" si="7"/>
         <v>12.533070666666998</v>
       </c>
-      <c r="AH7" s="42">
+      <c r="AH7" s="35">
         <f>AD7/1000</f>
         <v>1.1781E-2</v>
       </c>
@@ -7081,7 +7081,7 @@
         <f t="shared" ref="T8:T36" si="11">O8*0.85*1000</f>
         <v>45317.036905093388</v>
       </c>
-      <c r="U8" s="35"/>
+      <c r="U8" s="39"/>
       <c r="W8" s="11" t="s">
         <v>14</v>
       </c>
@@ -7107,7 +7107,7 @@
       <c r="AE8" s="18">
         <v>16.884666670000001</v>
       </c>
-      <c r="AF8" s="42">
+      <c r="AF8" s="35">
         <f t="shared" si="1"/>
         <v>1.6884666670000003E-2</v>
       </c>
@@ -7115,7 +7115,7 @@
         <f t="shared" si="7"/>
         <v>12.549955333336998</v>
       </c>
-      <c r="AH8" s="42">
+      <c r="AH8" s="35">
         <f t="shared" si="8"/>
         <v>1.6884666670000003E-2</v>
       </c>
@@ -7180,7 +7180,7 @@
         <f t="shared" si="11"/>
         <v>43612.056199804094</v>
       </c>
-      <c r="U9" s="35"/>
+      <c r="U9" s="39"/>
       <c r="W9" s="15" t="s">
         <v>15</v>
       </c>
@@ -7205,7 +7205,7 @@
       <c r="AE9" s="18">
         <v>20.926666669999999</v>
       </c>
-      <c r="AF9" s="42">
+      <c r="AF9" s="35">
         <f t="shared" si="1"/>
         <v>2.092666667E-2</v>
       </c>
@@ -7213,7 +7213,7 @@
         <f t="shared" si="7"/>
         <v>12.570882000006998</v>
       </c>
-      <c r="AH9" s="42">
+      <c r="AH9" s="35">
         <f t="shared" si="8"/>
         <v>2.092666667E-2</v>
       </c>
@@ -7278,7 +7278,7 @@
         <f t="shared" si="11"/>
         <v>43612.056199804094</v>
       </c>
-      <c r="U10" s="35"/>
+      <c r="U10" s="39"/>
       <c r="AA10">
         <v>2001</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="AE10" s="18">
         <v>27.984999999999999</v>
       </c>
-      <c r="AF10" s="42">
+      <c r="AF10" s="35">
         <f t="shared" si="1"/>
         <v>2.7984999999999999E-2</v>
       </c>
@@ -7302,7 +7302,7 @@
         <f t="shared" si="7"/>
         <v>12.598867000006997</v>
       </c>
-      <c r="AH10" s="42">
+      <c r="AH10" s="35">
         <f t="shared" si="8"/>
         <v>2.7984999999999999E-2</v>
       </c>
@@ -7367,7 +7367,7 @@
         <f t="shared" si="11"/>
         <v>36095.01550720747</v>
       </c>
-      <c r="U11" s="35"/>
+      <c r="U11" s="39"/>
       <c r="AA11">
         <v>2002</v>
       </c>
@@ -7383,7 +7383,7 @@
       <c r="AE11" s="18">
         <v>42.475999999999999</v>
       </c>
-      <c r="AF11" s="42">
+      <c r="AF11" s="35">
         <f t="shared" si="1"/>
         <v>4.2476E-2</v>
       </c>
@@ -7391,7 +7391,7 @@
         <f t="shared" si="7"/>
         <v>12.641343000006998</v>
       </c>
-      <c r="AH11" s="42">
+      <c r="AH11" s="35">
         <f t="shared" si="8"/>
         <v>4.2476E-2</v>
       </c>
@@ -7456,7 +7456,7 @@
         <f t="shared" si="11"/>
         <v>36095.01550720747</v>
       </c>
-      <c r="U12" s="35"/>
+      <c r="U12" s="39"/>
       <c r="AA12">
         <v>2003</v>
       </c>
@@ -7472,7 +7472,7 @@
       <c r="AE12" s="18">
         <v>59.744999999999997</v>
       </c>
-      <c r="AF12" s="42">
+      <c r="AF12" s="35">
         <f t="shared" si="1"/>
         <v>5.9744999999999999E-2</v>
       </c>
@@ -7480,7 +7480,7 @@
         <f t="shared" si="7"/>
         <v>12.701088000006997</v>
       </c>
-      <c r="AH12" s="42">
+      <c r="AH12" s="35">
         <f t="shared" si="8"/>
         <v>5.9744999999999999E-2</v>
       </c>
@@ -7545,7 +7545,7 @@
         <f t="shared" si="11"/>
         <v>58095.908892946391</v>
       </c>
-      <c r="U13" s="35"/>
+      <c r="U13" s="39"/>
       <c r="AA13">
         <v>2004</v>
       </c>
@@ -7561,7 +7561,7 @@
       <c r="AE13" s="18">
         <v>94.751999999999995</v>
       </c>
-      <c r="AF13" s="42">
+      <c r="AF13" s="35">
         <f t="shared" si="1"/>
         <v>9.4751999999999989E-2</v>
       </c>
@@ -7569,7 +7569,7 @@
         <f t="shared" si="7"/>
         <v>12.795840000006997</v>
       </c>
-      <c r="AH13" s="42">
+      <c r="AH13" s="35">
         <f t="shared" si="8"/>
         <v>9.4751999999999989E-2</v>
       </c>
@@ -7634,7 +7634,7 @@
         <f t="shared" si="11"/>
         <v>58095.908892946398</v>
       </c>
-      <c r="U14" s="35"/>
+      <c r="U14" s="39"/>
       <c r="AA14">
         <v>2005</v>
       </c>
@@ -7650,7 +7650,7 @@
       <c r="AE14" s="18">
         <v>96.581173219999997</v>
       </c>
-      <c r="AF14" s="42">
+      <c r="AF14" s="35">
         <f t="shared" si="1"/>
         <v>9.6581173219999997E-2</v>
       </c>
@@ -7658,7 +7658,7 @@
         <f t="shared" si="7"/>
         <v>12.892421173226998</v>
       </c>
-      <c r="AH14" s="42">
+      <c r="AH14" s="35">
         <f t="shared" si="8"/>
         <v>9.6581173219999997E-2</v>
       </c>
@@ -7723,7 +7723,7 @@
         <f t="shared" si="11"/>
         <v>101496.42554127268</v>
       </c>
-      <c r="U15" s="35"/>
+      <c r="U15" s="39"/>
       <c r="AA15">
         <v>2006</v>
       </c>
@@ -7739,7 +7739,7 @@
       <c r="AE15" s="18">
         <v>98.21307161</v>
       </c>
-      <c r="AF15" s="42">
+      <c r="AF15" s="35">
         <f t="shared" si="1"/>
         <v>9.8213071609999994E-2</v>
       </c>
@@ -7747,7 +7747,7 @@
         <f t="shared" si="7"/>
         <v>12.990634244836997</v>
       </c>
-      <c r="AH15" s="42">
+      <c r="AH15" s="35">
         <f t="shared" si="8"/>
         <v>9.8213071609999994E-2</v>
       </c>
@@ -7812,7 +7812,7 @@
         <f t="shared" si="11"/>
         <v>101496.42554127268</v>
       </c>
-      <c r="U16" s="35"/>
+      <c r="U16" s="39"/>
       <c r="AA16">
         <v>2007</v>
       </c>
@@ -7828,7 +7828,7 @@
       <c r="AE16" s="18">
         <v>324.23274839999999</v>
       </c>
-      <c r="AF16" s="42">
+      <c r="AF16" s="35">
         <f t="shared" si="1"/>
         <v>0.32423274839999999</v>
       </c>
@@ -7836,7 +7836,7 @@
         <f t="shared" si="7"/>
         <v>13.314866993236997</v>
       </c>
-      <c r="AH16" s="42">
+      <c r="AH16" s="35">
         <f t="shared" si="8"/>
         <v>0.32423274839999999</v>
       </c>
@@ -7901,7 +7901,7 @@
         <f t="shared" si="11"/>
         <v>135294.97627325874</v>
       </c>
-      <c r="U17" s="35"/>
+      <c r="U17" s="39"/>
       <c r="AA17">
         <v>2008</v>
       </c>
@@ -7917,7 +7917,7 @@
       <c r="AE17" s="18">
         <v>314.58510869999998</v>
       </c>
-      <c r="AF17" s="42">
+      <c r="AF17" s="35">
         <f t="shared" si="1"/>
         <v>0.3145851087</v>
       </c>
@@ -7925,7 +7925,7 @@
         <f t="shared" si="7"/>
         <v>13.629452101936996</v>
       </c>
-      <c r="AH17" s="42">
+      <c r="AH17" s="35">
         <f t="shared" si="8"/>
         <v>0.3145851087</v>
       </c>
@@ -7990,7 +7990,7 @@
         <f t="shared" si="11"/>
         <v>135294.97627325874</v>
       </c>
-      <c r="U18" s="35"/>
+      <c r="U18" s="39"/>
       <c r="AA18">
         <v>2009</v>
       </c>
@@ -8006,7 +8006,7 @@
       <c r="AE18" s="18">
         <v>431.24480390000002</v>
       </c>
-      <c r="AF18" s="42">
+      <c r="AF18" s="35">
         <f t="shared" si="1"/>
         <v>0.43124480390000003</v>
       </c>
@@ -8014,7 +8014,7 @@
         <f t="shared" si="7"/>
         <v>14.060696905836997</v>
       </c>
-      <c r="AH18" s="42">
+      <c r="AH18" s="35">
         <f t="shared" si="8"/>
         <v>0.43124480390000003</v>
       </c>
@@ -8079,7 +8079,7 @@
         <f t="shared" si="11"/>
         <v>102565.12960792081</v>
       </c>
-      <c r="U19" s="35"/>
+      <c r="U19" s="39"/>
       <c r="AA19">
         <v>2010</v>
       </c>
@@ -8095,7 +8095,7 @@
       <c r="AE19" s="18">
         <v>719.84443759999999</v>
       </c>
-      <c r="AF19" s="42">
+      <c r="AF19" s="35">
         <f t="shared" si="1"/>
         <v>0.71984443759999994</v>
       </c>
@@ -8103,7 +8103,7 @@
         <f t="shared" si="7"/>
         <v>14.780541343436997</v>
       </c>
-      <c r="AH19" s="42">
+      <c r="AH19" s="35">
         <f t="shared" si="8"/>
         <v>0.71984443759999994</v>
       </c>
@@ -8168,7 +8168,7 @@
         <f t="shared" si="11"/>
         <v>102565.12960792081</v>
       </c>
-      <c r="U20" s="35"/>
+      <c r="U20" s="39"/>
       <c r="AA20">
         <v>2011</v>
       </c>
@@ -8184,7 +8184,7 @@
       <c r="AE20">
         <v>2534.3001088300002</v>
       </c>
-      <c r="AF20" s="42">
+      <c r="AF20" s="35">
         <f t="shared" si="1"/>
         <v>1.781377078</v>
       </c>
@@ -8192,7 +8192,7 @@
         <f t="shared" si="7"/>
         <v>16.561918421436996</v>
       </c>
-      <c r="AH20" s="42">
+      <c r="AH20" s="35">
         <f t="shared" si="8"/>
         <v>1.781377078</v>
       </c>
@@ -8222,7 +8222,7 @@
         <f t="shared" si="11"/>
         <v>57419.099674803256</v>
       </c>
-      <c r="U21" s="35"/>
+      <c r="U21" s="39"/>
       <c r="AA21">
         <v>2012</v>
       </c>
@@ -8238,7 +8238,7 @@
       <c r="AE21">
         <v>2534.3001088300002</v>
       </c>
-      <c r="AF21" s="42">
+      <c r="AF21" s="35">
         <f t="shared" si="1"/>
         <v>3.0641622809999998</v>
       </c>
@@ -8246,7 +8246,7 @@
         <f t="shared" si="7"/>
         <v>19.626080702436994</v>
       </c>
-      <c r="AH21" s="42">
+      <c r="AH21" s="35">
         <f t="shared" si="8"/>
         <v>3.0641622809999998</v>
       </c>
@@ -8276,7 +8276,7 @@
         <f t="shared" si="11"/>
         <v>57419.099674803256</v>
       </c>
-      <c r="U22" s="35"/>
+      <c r="U22" s="39"/>
       <c r="AA22">
         <v>2013</v>
       </c>
@@ -8292,7 +8292,7 @@
       <c r="AE22">
         <v>5123.0337317149997</v>
       </c>
-      <c r="AF22" s="42">
+      <c r="AF22" s="35">
         <f t="shared" si="1"/>
         <v>4.0374491130000001</v>
       </c>
@@ -8300,7 +8300,7 @@
         <f t="shared" si="7"/>
         <v>23.663529815436995</v>
       </c>
-      <c r="AH22" s="42">
+      <c r="AH22" s="35">
         <f t="shared" si="8"/>
         <v>4.0374491130000001</v>
       </c>
@@ -8330,7 +8330,7 @@
         <f t="shared" si="11"/>
         <v>78667.472447315566</v>
       </c>
-      <c r="U23" s="35"/>
+      <c r="U23" s="39"/>
       <c r="AA23">
         <v>2014</v>
       </c>
@@ -8346,7 +8346,7 @@
       <c r="AE23">
         <v>5123.0337317149997</v>
       </c>
-      <c r="AF23" s="42">
+      <c r="AF23" s="35">
         <f t="shared" si="1"/>
         <v>3.722199485</v>
       </c>
@@ -8354,7 +8354,7 @@
         <f t="shared" si="7"/>
         <v>27.385729300436996</v>
       </c>
-      <c r="AH23" s="42">
+      <c r="AH23" s="35">
         <f t="shared" si="8"/>
         <v>3.722199485</v>
       </c>
@@ -8384,7 +8384,7 @@
         <f t="shared" si="11"/>
         <v>78667.472447315566</v>
       </c>
-      <c r="U24" s="35"/>
+      <c r="U24" s="39"/>
       <c r="AA24">
         <v>2015</v>
       </c>
@@ -8400,7 +8400,7 @@
       <c r="AE24">
         <v>9477.5373098149994</v>
       </c>
-      <c r="AF24" s="42">
+      <c r="AF24" s="35">
         <f t="shared" si="1"/>
         <v>6.8343288129999999</v>
       </c>
@@ -8408,7 +8408,7 @@
         <f t="shared" si="7"/>
         <v>34.220058113436998</v>
       </c>
-      <c r="AH24" s="42">
+      <c r="AH24" s="35">
         <f t="shared" si="8"/>
         <v>6.8343288129999999</v>
       </c>
@@ -8438,7 +8438,7 @@
         <f t="shared" si="11"/>
         <v>28107.893628741971</v>
       </c>
-      <c r="U25" s="35"/>
+      <c r="U25" s="39"/>
       <c r="AA25">
         <v>2016</v>
       </c>
@@ -8454,7 +8454,7 @@
       <c r="AE25">
         <v>9477.5373098149994</v>
       </c>
-      <c r="AF25" s="42">
+      <c r="AF25" s="35">
         <f t="shared" si="1"/>
         <v>12.89766595</v>
       </c>
@@ -8462,7 +8462,7 @@
         <f t="shared" si="7"/>
         <v>47.117724063436995</v>
       </c>
-      <c r="AH25" s="42">
+      <c r="AH25" s="35">
         <f t="shared" si="8"/>
         <v>12.89766595</v>
       </c>
@@ -8492,7 +8492,7 @@
         <f t="shared" si="11"/>
         <v>28107.893628741971</v>
       </c>
-      <c r="U26" s="35"/>
+      <c r="U26" s="39"/>
       <c r="AA26">
         <v>2017</v>
       </c>
@@ -8508,7 +8508,7 @@
       <c r="AE26">
         <v>9156.7831249049996</v>
       </c>
-      <c r="AF26" s="42">
+      <c r="AF26" s="35">
         <f t="shared" si="1"/>
         <v>9.7845062149999986</v>
       </c>
@@ -8516,7 +8516,7 @@
         <f t="shared" si="7"/>
         <v>56.902230278436996</v>
       </c>
-      <c r="AH26" s="42">
+      <c r="AH26" s="35">
         <f t="shared" si="8"/>
         <v>9.7845062149999986</v>
       </c>
@@ -8546,7 +8546,7 @@
         <f t="shared" si="11"/>
         <v>61058.016912041159</v>
       </c>
-      <c r="U27" s="35"/>
+      <c r="U27" s="39"/>
       <c r="AA27">
         <v>2018</v>
       </c>
@@ -8562,7 +8562,7 @@
       <c r="AE27">
         <v>9156.7831249049996</v>
       </c>
-      <c r="AF27" s="42">
+      <c r="AF27" s="35">
         <f t="shared" si="1"/>
         <v>9.3525294479999985</v>
       </c>
@@ -8570,7 +8570,7 @@
         <f t="shared" si="7"/>
         <v>66.254759726436987</v>
       </c>
-      <c r="AH27" s="42">
+      <c r="AH27" s="35">
         <f t="shared" si="8"/>
         <v>9.3525294479999985</v>
       </c>
@@ -8600,7 +8600,7 @@
         <f t="shared" si="11"/>
         <v>61058.016912041159</v>
       </c>
-      <c r="U28" s="35"/>
+      <c r="U28" s="39"/>
       <c r="AA28">
         <v>2019</v>
       </c>
@@ -8616,7 +8616,7 @@
       <c r="AE28">
         <v>16904.814949799998</v>
       </c>
-      <c r="AF28" s="42">
+      <c r="AF28" s="35">
         <f t="shared" si="1"/>
         <v>10.949782340000001</v>
       </c>
@@ -8624,7 +8624,7 @@
         <f t="shared" si="7"/>
         <v>77.204542066436986</v>
       </c>
-      <c r="AH28" s="42">
+      <c r="AH28" s="35">
         <f t="shared" si="8"/>
         <v>10.949782340000001</v>
       </c>
@@ -8654,7 +8654,7 @@
         <f t="shared" si="11"/>
         <v>56555.13983155301</v>
       </c>
-      <c r="U29" s="35"/>
+      <c r="U29" s="39"/>
       <c r="AA29">
         <v>2020</v>
       </c>
@@ -8709,7 +8709,7 @@
         <f t="shared" si="11"/>
         <v>56555.13983155301</v>
       </c>
-      <c r="U30" s="35"/>
+      <c r="U30" s="39"/>
       <c r="AA30">
         <v>2021</v>
       </c>
@@ -8764,7 +8764,7 @@
         <f t="shared" si="11"/>
         <v>71331.759171879297</v>
       </c>
-      <c r="U31" s="35"/>
+      <c r="U31" s="39"/>
       <c r="AA31">
         <v>2022</v>
       </c>
@@ -8819,7 +8819,7 @@
         <f t="shared" si="11"/>
         <v>71331.759171879297</v>
       </c>
-      <c r="U32" s="35"/>
+      <c r="U32" s="39"/>
       <c r="AA32">
         <v>2023</v>
       </c>
@@ -8874,7 +8874,7 @@
         <f t="shared" si="11"/>
         <v>96095.007727098899</v>
       </c>
-      <c r="U33" s="35"/>
+      <c r="U33" s="39"/>
       <c r="AA33">
         <v>2024</v>
       </c>
@@ -8929,7 +8929,7 @@
         <f t="shared" si="11"/>
         <v>96095.007727098899</v>
       </c>
-      <c r="U34" s="35"/>
+      <c r="U34" s="39"/>
       <c r="AA34">
         <v>2025</v>
       </c>
@@ -8984,7 +8984,7 @@
         <f t="shared" si="11"/>
         <v>98823.687938416275</v>
       </c>
-      <c r="U35" s="35"/>
+      <c r="U35" s="39"/>
       <c r="AA35">
         <v>2026</v>
       </c>
@@ -9039,7 +9039,7 @@
         <f t="shared" si="11"/>
         <v>98823.687938416275</v>
       </c>
-      <c r="U36" s="36"/>
+      <c r="U36" s="40"/>
       <c r="AA36">
         <v>2027</v>
       </c>
